--- a/backend/src/excel_handler/files/BOLT.xlsx
+++ b/backend/src/excel_handler/files/BOLT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207226.08</v>
+        <v>301777.46</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103613.04</v>
+        <v>100592.49</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162442.84</v>
+        <v>181470.79</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44783.24</v>
+        <v>45326.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>74979.92999999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BOLT.xlsx
+++ b/backend/src/excel_handler/files/BOLT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,58 +436,78 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>301777.46</v>
+        <v>181930.35</v>
+      </c>
+      <c r="C2" t="n">
+        <v>165685.73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100592.49</v>
+        <v>75104.00999999999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>74942.10000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181470.79</v>
+        <v>47564.25</v>
+      </c>
+      <c r="C4" t="n">
+        <v>49659.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45326.74</v>
+        <v>101532.87</v>
+      </c>
+      <c r="C5" t="n">
+        <v>96762.49000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74979.92999999999</v>
+        <v>304598.61</v>
+      </c>
+      <c r="C6" t="n">
+        <v>290287.46</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BOLT.xlsx
+++ b/backend/src/excel_handler/files/BOLT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,66 +443,51 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181930.35</v>
-      </c>
-      <c r="C2" t="n">
-        <v>165685.73</v>
+        <v>290287.46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75104.00999999999</v>
-      </c>
-      <c r="C3" t="n">
-        <v>74942.10000000001</v>
+        <v>96762.49000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47564.25</v>
-      </c>
-      <c r="C4" t="n">
-        <v>49659.63</v>
+        <v>165685.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101532.87</v>
-      </c>
-      <c r="C5" t="n">
-        <v>96762.49000000001</v>
+        <v>74942.10000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304598.61</v>
-      </c>
-      <c r="C6" t="n">
-        <v>290287.46</v>
+        <v>49659.63</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BOLT.xlsx
+++ b/backend/src/excel_handler/files/BOLT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,55 +439,73 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290287.46</v>
+        <v>165685.73</v>
+      </c>
+      <c r="C2" t="n">
+        <v>160107.87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96762.49000000001</v>
+        <v>74942.10000000001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>75167.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165685.73</v>
-      </c>
+        <v>49659.63</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74942.10000000001</v>
+        <v>96762.49000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>117637.59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49659.63</v>
+        <v>290287.46</v>
+      </c>
+      <c r="C6" t="n">
+        <v>235275.17</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BOLT.xlsx
+++ b/backend/src/excel_handler/files/BOLT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>160107.87</v>
       </c>
+      <c r="D2" t="n">
+        <v>171693.69</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>75167.3</v>
       </c>
+      <c r="D3" t="n">
+        <v>75031.46000000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -481,6 +492,9 @@
         <v>49659.63</v>
       </c>
       <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>39892.38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -494,6 +508,9 @@
       <c r="C5" t="n">
         <v>117637.59</v>
       </c>
+      <c r="D5" t="n">
+        <v>95539.17999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -506,6 +523,9 @@
       </c>
       <c r="C6" t="n">
         <v>235275.17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>286617.53</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BOLT.xlsx
+++ b/backend/src/excel_handler/files/BOLT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>171693.69</v>
       </c>
+      <c r="E2" t="n">
+        <v>169532.24</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>75031.46000000001</v>
       </c>
+      <c r="E3" t="n">
+        <v>75121.42999999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -495,6 +506,9 @@
       <c r="D4" t="n">
         <v>39892.38</v>
       </c>
+      <c r="E4" t="n">
+        <v>39577.11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -511,6 +525,9 @@
       <c r="D5" t="n">
         <v>95539.17999999999</v>
       </c>
+      <c r="E5" t="n">
+        <v>94743.59</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -526,6 +543,9 @@
       </c>
       <c r="D6" t="n">
         <v>286617.53</v>
+      </c>
+      <c r="E6" t="n">
+        <v>284230.78</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BOLT.xlsx
+++ b/backend/src/excel_handler/files/BOLT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>169532.24</v>
       </c>
+      <c r="F2" t="n">
+        <v>163761.68</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>75121.42999999999</v>
       </c>
+      <c r="F3" t="n">
+        <v>75172.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +520,9 @@
       <c r="E4" t="n">
         <v>39577.11</v>
       </c>
+      <c r="F4" t="n">
+        <v>39132.79</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -528,6 +542,9 @@
       <c r="E5" t="n">
         <v>94743.59</v>
       </c>
+      <c r="F5" t="n">
+        <v>92688.92</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -546,6 +563,9 @@
       </c>
       <c r="E6" t="n">
         <v>284230.78</v>
+      </c>
+      <c r="F6" t="n">
+        <v>278066.77</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BOLT.xlsx
+++ b/backend/src/excel_handler/files/BOLT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>163761.68</v>
       </c>
+      <c r="G2" t="n">
+        <v>166234.06</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>75172.3</v>
       </c>
+      <c r="G3" t="n">
+        <v>75001.78</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -523,6 +534,9 @@
       <c r="F4" t="n">
         <v>39132.79</v>
       </c>
+      <c r="G4" t="n">
+        <v>42174.32</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -545,6 +559,9 @@
       <c r="F5" t="n">
         <v>92688.92</v>
       </c>
+      <c r="G5" t="n">
+        <v>94470.05</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -566,6 +583,9 @@
       </c>
       <c r="F6" t="n">
         <v>278066.77</v>
+      </c>
+      <c r="G6" t="n">
+        <v>283410.16</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BOLT.xlsx
+++ b/backend/src/excel_handler/files/BOLT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>166234.06</v>
       </c>
+      <c r="H2" t="n">
+        <v>170846.49</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>75001.78</v>
       </c>
+      <c r="H3" t="n">
+        <v>75120.31</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +548,9 @@
       <c r="G4" t="n">
         <v>42174.32</v>
       </c>
+      <c r="H4" t="n">
+        <v>41598.75</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -562,6 +576,9 @@
       <c r="G5" t="n">
         <v>94470.05</v>
       </c>
+      <c r="H5" t="n">
+        <v>95855.17999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -586,6 +603,9 @@
       </c>
       <c r="G6" t="n">
         <v>283410.16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>287565.55</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BOLT.xlsx
+++ b/backend/src/excel_handler/files/BOLT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>170846.49</v>
       </c>
+      <c r="I2" t="n">
+        <v>169311.75</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>75120.31</v>
       </c>
+      <c r="I3" t="n">
+        <v>75032.72</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +562,9 @@
       <c r="H4" t="n">
         <v>41598.75</v>
       </c>
+      <c r="I4" t="n">
+        <v>41350.07</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -579,6 +593,9 @@
       <c r="H5" t="n">
         <v>95855.17999999999</v>
       </c>
+      <c r="I5" t="n">
+        <v>95231.50999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -606,6 +623,9 @@
       </c>
       <c r="H6" t="n">
         <v>287565.55</v>
+      </c>
+      <c r="I6" t="n">
+        <v>285694.54</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BOLT.xlsx
+++ b/backend/src/excel_handler/files/BOLT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>169311.75</v>
       </c>
+      <c r="J2" t="n">
+        <v>180964.62</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>75032.72</v>
       </c>
+      <c r="J3" t="n">
+        <v>74791.12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -565,6 +576,9 @@
       <c r="I4" t="n">
         <v>41350.07</v>
       </c>
+      <c r="J4" t="n">
+        <v>44744.23</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -596,6 +610,9 @@
       <c r="I5" t="n">
         <v>95231.50999999999</v>
       </c>
+      <c r="J5" t="n">
+        <v>100166.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -626,6 +643,9 @@
       </c>
       <c r="I6" t="n">
         <v>285694.54</v>
+      </c>
+      <c r="J6" t="n">
+        <v>300499.97</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BOLT.xlsx
+++ b/backend/src/excel_handler/files/BOLT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>180964.62</v>
       </c>
+      <c r="K2" t="n">
+        <v>181161.77</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>74791.12</v>
       </c>
+      <c r="K3" t="n">
+        <v>74829.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -579,6 +590,9 @@
       <c r="J4" t="n">
         <v>44744.23</v>
       </c>
+      <c r="K4" t="n">
+        <v>44338.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -613,6 +627,9 @@
       <c r="J5" t="n">
         <v>100166.66</v>
       </c>
+      <c r="K5" t="n">
+        <v>100110.07</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -646,6 +663,9 @@
       </c>
       <c r="J6" t="n">
         <v>300499.97</v>
+      </c>
+      <c r="K6" t="n">
+        <v>300330.22</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BOLT.xlsx
+++ b/backend/src/excel_handler/files/BOLT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>181161.77</v>
       </c>
+      <c r="L2" t="n">
+        <v>169314.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>74829.95</v>
       </c>
+      <c r="L3" t="n">
+        <v>74989.84</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -593,6 +604,9 @@
       <c r="K4" t="n">
         <v>44338.5</v>
       </c>
+      <c r="L4" t="n">
+        <v>40759.92</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -630,6 +644,9 @@
       <c r="K5" t="n">
         <v>100110.07</v>
       </c>
+      <c r="L5" t="n">
+        <v>95021.57000000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -666,6 +683,9 @@
       </c>
       <c r="K6" t="n">
         <v>300330.22</v>
+      </c>
+      <c r="L6" t="n">
+        <v>285064.71</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BOLT.xlsx
+++ b/backend/src/excel_handler/files/BOLT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>169314.95</v>
       </c>
+      <c r="M2" t="n">
+        <v>171389.72</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>74989.84</v>
       </c>
+      <c r="M3" t="n">
+        <v>75211.88</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -607,6 +618,9 @@
       <c r="L4" t="n">
         <v>40759.92</v>
       </c>
+      <c r="M4" t="n">
+        <v>41391.65</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -647,6 +661,9 @@
       <c r="L5" t="n">
         <v>95021.57000000001</v>
       </c>
+      <c r="M5" t="n">
+        <v>95997.75</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -686,6 +703,9 @@
       </c>
       <c r="L6" t="n">
         <v>285064.71</v>
+      </c>
+      <c r="M6" t="n">
+        <v>287993.25</v>
       </c>
     </row>
   </sheetData>
